--- a/Users/KhuongNM60455/Dictionary.xlsx
+++ b/Users/KhuongNM60455/Dictionary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Pros</t>
   </si>
@@ -64,13 +64,34 @@
   </si>
   <si>
     <t>Fast</t>
+  </si>
+  <si>
+    <t>smooth</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>opposite of</t>
+  </si>
+  <si>
+    <t>difficult </t>
+  </si>
+  <si>
+    <t>not a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,17 +101,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF4D4D4D"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -108,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -120,21 +146,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -178,31 +189,74 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,137 +558,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users/KhuongNM60455/Dictionary.xlsx
+++ b/Users/KhuongNM60455/Dictionary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Pros</t>
   </si>
@@ -85,13 +85,25 @@
   </si>
   <si>
     <t>not a</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>does not</t>
+  </si>
+  <si>
+    <t>doesn't</t>
+  </si>
+  <si>
+    <t>amazing </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +111,12 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -240,23 +258,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +580,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,160 +591,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
